--- a/spreadsheets/us-stores.xlsx
+++ b/spreadsheets/us-stores.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_295D1CD3_9241_4238_A5D6_83C36CE3A7CF_.wvu.FilterData">Sheet1!$A$2:$B$58</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7BE7D42B_CC7B_4EEA_800D_E7B65C4FD2B5_.wvu.FilterData">Sheet1!$A$2:$B$58</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{295D1CD3-9241-4238-A5D6-83C36CE3A7CF}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7BE7D42B-CC7B-4EEA-800D-E7B65C4FD2B5}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -372,7 +372,7 @@
     <t>rob's reef aquarium services and design</t>
   </si>
   <si>
-    <t>Robert’s Reef</t>
+    <t>Robert's Reef</t>
   </si>
   <si>
     <t>http://robertsreef.com/</t>
@@ -1291,7 +1291,7 @@
       <c r="C44" s="7"/>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1430,7 +1430,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{295D1CD3-9241-4238-A5D6-83C36CE3A7CF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7BE7D42B-CC7B-4EEA-800D-E7B65C4FD2B5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$B$58"/>
     </customSheetView>
   </customSheetViews>
